--- a/results/nested_cv_results_OFFSIDES_rare.xlsx
+++ b/results/nested_cv_results_OFFSIDES_rare.xlsx
@@ -831,40 +831,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8089512821629519</v>
+        <v>0.6730987438460494</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02493633146758822</v>
+        <v>0.01994194663886268</v>
       </c>
       <c r="E9" t="n">
-        <v>0.825698113379311</v>
+        <v>0.6751215518349627</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01391912657130784</v>
+        <v>0.01708587430143092</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7348549368428836</v>
+        <v>0.606184162868926</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01713066208704656</v>
+        <v>0.01861677156336745</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07409634532006826</v>
+        <v>0.06691458097712358</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01362290787587379</v>
+        <v>0.00784252905513921</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7465758091265073</v>
+        <v>0.6006964398177729</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007665070805150226</v>
+        <v>0.01645933346646746</v>
       </c>
       <c r="M9" t="n">
-        <v>0.07912230425280362</v>
+        <v>0.07442511201718985</v>
       </c>
       <c r="N9" t="n">
-        <v>0.007145433937501063</v>
+        <v>0.005987657369037075</v>
       </c>
     </row>
     <row r="10">
@@ -1099,40 +1099,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6125430715931675</v>
+        <v>0.7379247366577381</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01860038327141352</v>
+        <v>0.02830429469066217</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6353475041636008</v>
+        <v>0.776184682636047</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01749942579383387</v>
+        <v>0.02628455278193982</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5816791481828433</v>
+        <v>0.6989713096348086</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01095295716281195</v>
+        <v>0.02496414883217023</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03086392341032419</v>
+        <v>0.03895342702292947</v>
       </c>
       <c r="J15" t="n">
-        <v>0.008187186647980842</v>
+        <v>0.008491118460299119</v>
       </c>
       <c r="K15" t="n">
-        <v>0.600069282182073</v>
+        <v>0.7291377044695023</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0144406320355959</v>
+        <v>0.02387357573746531</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03527822198152792</v>
+        <v>0.04704697816654467</v>
       </c>
       <c r="N15" t="n">
-        <v>0.006474251465524815</v>
+        <v>0.007727785406185242</v>
       </c>
     </row>
     <row r="16">
@@ -1367,40 +1367,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.5081302167474782</v>
+        <v>0.6589376051765902</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02500147136262523</v>
+        <v>0.08717607121756836</v>
       </c>
       <c r="E21" t="n">
-        <v>0.498205399235445</v>
+        <v>0.5837801372015445</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01711848131117156</v>
+        <v>0.01820820038239864</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4787691458707641</v>
+        <v>0.6157194912791593</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02285582986591672</v>
+        <v>0.07476600130385846</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02936107087671404</v>
+        <v>0.04321811389743094</v>
       </c>
       <c r="J21" t="n">
-        <v>0.007450340162612196</v>
+        <v>0.01512731370610659</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4615602583656115</v>
+        <v>0.5412517044205294</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01535840998321245</v>
+        <v>0.01869957690387685</v>
       </c>
       <c r="M21" t="n">
-        <v>0.03664514086983356</v>
+        <v>0.04252843278101508</v>
       </c>
       <c r="N21" t="n">
-        <v>0.005566634865020907</v>
+        <v>0.00590240767362697</v>
       </c>
     </row>
     <row r="22">
@@ -1635,40 +1635,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.6216171410208998</v>
+        <v>0.8108160598839099</v>
       </c>
       <c r="D27" t="n">
-        <v>0.04488867370629882</v>
+        <v>0.03865615344719402</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6272109067180877</v>
+        <v>0.7262334798281642</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01685587229236346</v>
+        <v>0.02132857868568813</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5603944982612561</v>
+        <v>0.7265967445708847</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04417832221849752</v>
+        <v>0.02477438078395004</v>
       </c>
       <c r="I27" t="n">
-        <v>0.06122264275964369</v>
+        <v>0.08421931531302526</v>
       </c>
       <c r="J27" t="n">
-        <v>0.009325831204058378</v>
+        <v>0.01495250630474716</v>
       </c>
       <c r="K27" t="n">
-        <v>0.5658339332631483</v>
+        <v>0.6525564303458349</v>
       </c>
       <c r="L27" t="n">
-        <v>0.021575737558032</v>
+        <v>0.0211503241212423</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0613769734549394</v>
+        <v>0.07367704948232939</v>
       </c>
       <c r="N27" t="n">
-        <v>0.008496359455172213</v>
+        <v>0.006078180893481118</v>
       </c>
     </row>
     <row r="28">
@@ -1903,40 +1903,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.5435749080454328</v>
+        <v>0.534693110222271</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0512991207435578</v>
+        <v>0.05320912438910724</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5624962299968493</v>
+        <v>0.5449668920578477</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02286404881207708</v>
+        <v>0.005835806065354145</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5161950316044492</v>
+        <v>0.5071400377126879</v>
       </c>
       <c r="H33" t="n">
-        <v>0.04803782743313632</v>
+        <v>0.04945101531029355</v>
       </c>
       <c r="I33" t="n">
-        <v>0.02737987644098348</v>
+        <v>0.02755307250958304</v>
       </c>
       <c r="J33" t="n">
-        <v>0.006316367837706883</v>
+        <v>0.006444402566889406</v>
       </c>
       <c r="K33" t="n">
-        <v>0.5217483936810066</v>
+        <v>0.505249666664333</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01593863099759468</v>
+        <v>0.008094530500971361</v>
       </c>
       <c r="M33" t="n">
-        <v>0.04074783631584282</v>
+        <v>0.03971722539351467</v>
       </c>
       <c r="N33" t="n">
-        <v>0.009512775110599302</v>
+        <v>0.007283322525123517</v>
       </c>
     </row>
     <row r="34">
@@ -2171,40 +2171,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.713684362181037</v>
+        <v>0.6979368872390406</v>
       </c>
       <c r="D39" t="n">
-        <v>0.04149370515308302</v>
+        <v>0.03758181846023984</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6971798392861513</v>
+        <v>0.6756531104024883</v>
       </c>
       <c r="F39" t="n">
-        <v>0.02812054793375638</v>
+        <v>0.03448719986548832</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6619455809086574</v>
+        <v>0.6476325593866392</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04070982276234893</v>
+        <v>0.03897180376313727</v>
       </c>
       <c r="I39" t="n">
-        <v>0.05173878127237963</v>
+        <v>0.05030432785240139</v>
       </c>
       <c r="J39" t="n">
-        <v>0.01456736649654228</v>
+        <v>0.01369062015787218</v>
       </c>
       <c r="K39" t="n">
-        <v>0.6476531758068997</v>
+        <v>0.628043958252185</v>
       </c>
       <c r="L39" t="n">
-        <v>0.02821145028582842</v>
+        <v>0.03524651252232785</v>
       </c>
       <c r="M39" t="n">
-        <v>0.04952666347925157</v>
+        <v>0.04760915215030342</v>
       </c>
       <c r="N39" t="n">
-        <v>0.007409789593743854</v>
+        <v>0.006921670412859935</v>
       </c>
     </row>
     <row r="40">
@@ -2439,40 +2439,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.7367838185498772</v>
+        <v>0.694912763070382</v>
       </c>
       <c r="D45" t="n">
-        <v>0.04299377246796873</v>
+        <v>0.05341174263075329</v>
       </c>
       <c r="E45" t="n">
-        <v>0.694324515023317</v>
+        <v>0.6385912607750479</v>
       </c>
       <c r="F45" t="n">
-        <v>0.02183156501490821</v>
+        <v>0.008096092923902965</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6914295611666338</v>
+        <v>0.652934892375872</v>
       </c>
       <c r="H45" t="n">
-        <v>0.03932774882318003</v>
+        <v>0.04827130312733158</v>
       </c>
       <c r="I45" t="n">
-        <v>0.04535425738324332</v>
+        <v>0.04197787069450996</v>
       </c>
       <c r="J45" t="n">
-        <v>0.01072612020896939</v>
+        <v>0.01076918484856646</v>
       </c>
       <c r="K45" t="n">
-        <v>0.6589820719034778</v>
+        <v>0.6065949668584791</v>
       </c>
       <c r="L45" t="n">
-        <v>0.02436213282381721</v>
+        <v>0.00775876048276294</v>
       </c>
       <c r="M45" t="n">
-        <v>0.03534244311983929</v>
+        <v>0.03199629391656893</v>
       </c>
       <c r="N45" t="n">
-        <v>0.007265389641092064</v>
+        <v>0.006383132933219579</v>
       </c>
     </row>
     <row r="46">
